--- a/Module_6/template-daily-report.xlsx
+++ b/Module_6/template-daily-report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Gym_A0422I1_HuuTri\Module_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3BE81F-B255-4097-91EB-EDCD048ECD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEB27F-6F91-4149-A111-185D62A654D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FF2D489B-50A0-4315-A986-C417237A11AC}"/>
   </bookViews>
@@ -96,15 +96,6 @@
     <t>[Coding Angular + all] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
   </si>
   <si>
-    <t>[Review code (Sonarqube)]- 6.4.1.2. Người dùng - Quản lý đặt vé của tài khoản</t>
-  </si>
-  <si>
-    <t>[Review code (Sonarqube)]-6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
-  </si>
-  <si>
-    <t>04/28/2023</t>
-  </si>
-  <si>
     <t>05/05/2023</t>
   </si>
   <si>
@@ -112,6 +103,15 @@
   </si>
   <si>
     <t>[Update Blackbox TC] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
+  </si>
+  <si>
+    <t>[Perform Blackbox TC] - 6.4.1.2. Người dùng - Quản lý đặt vé của tài khoản</t>
+  </si>
+  <si>
+    <t>[Perform Blackbox TC] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
+  </si>
+  <si>
+    <t>08/05/2023</t>
   </si>
 </sst>
 </file>
@@ -394,6 +394,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -413,9 +416,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,7 +735,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -807,10 +807,10 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -829,14 +829,14 @@
       <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="12" t="s">
         <v>12</v>
       </c>
@@ -850,10 +850,10 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="9"/>
       <c r="I7" s="15"/>
     </row>
@@ -863,10 +863,10 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
@@ -876,10 +876,10 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
@@ -889,10 +889,10 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
@@ -908,10 +908,10 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -991,13 +991,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>25</v>
+      <c r="D16" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>5</v>
@@ -1013,13 +1013,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>25</v>
+      <c r="C17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>5</v>
@@ -1067,10 +1067,10 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="34" t="s">
         <v>26</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="1"/>
@@ -1120,10 +1120,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="1"/>

--- a/Module_6/template-daily-report.xlsx
+++ b/Module_6/template-daily-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Gym_A0422I1_HuuTri\Module_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEB27F-6F91-4149-A111-185D62A654D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63661029-B759-4DCE-95EB-7BF9F24D96A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FF2D489B-50A0-4315-A986-C417237A11AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>1. Chưa thực hiện</t>
   </si>
@@ -96,22 +96,19 @@
     <t>[Coding Angular + all] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
   </si>
   <si>
-    <t>05/05/2023</t>
-  </si>
-  <si>
-    <t>[Update Blackbox TC] - 6.4.1.2. Người dùng - Quản lý đặt vé của tài khoản</t>
-  </si>
-  <si>
-    <t>[Update Blackbox TC] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
-  </si>
-  <si>
     <t>[Perform Blackbox TC] - 6.4.1.2. Người dùng - Quản lý đặt vé của tài khoản</t>
   </si>
   <si>
     <t>[Perform Blackbox TC] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
   </si>
   <si>
-    <t>08/05/2023</t>
+    <t>[Fix Bug] - 6.4.1.2. Người dùng - Quản lý đặt vé của tài khoản</t>
+  </si>
+  <si>
+    <t>[Fix Bug] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
+  </si>
+  <si>
+    <t>10/05/2023</t>
   </si>
 </sst>
 </file>
@@ -734,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E56326-B3F6-46EF-B92B-57160B055A69}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -953,11 +950,11 @@
       <c r="C14" s="17">
         <v>45042</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>20</v>
+      <c r="D14" s="17">
+        <v>45054</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="1"/>
@@ -974,11 +971,11 @@
       <c r="C15" s="17">
         <v>45042</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>20</v>
+      <c r="D15" s="17">
+        <v>45054</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="1"/>
@@ -991,16 +988,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="27" t="s">
         <v>23</v>
       </c>
+      <c r="C16" s="17">
+        <v>45054</v>
+      </c>
       <c r="D16" s="27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="1"/>
@@ -1013,16 +1010,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="17">
+        <v>45054</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="1"/>
@@ -1103,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="1"/>
@@ -1120,10 +1117,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="1"/>

--- a/Module_6/template-daily-report.xlsx
+++ b/Module_6/template-daily-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Gym_A0422I1_HuuTri\Module_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63661029-B759-4DCE-95EB-7BF9F24D96A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364A913-C525-4396-85C2-732434AE86E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FF2D489B-50A0-4315-A986-C417237A11AC}"/>
   </bookViews>
@@ -90,12 +90,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>[Coding Angular + all] - 6.4.1.2. Người dùng - Quản lý đặt vé của tài khoản</t>
-  </si>
-  <si>
-    <t>[Coding Angular + all] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
-  </si>
-  <si>
     <t>[Perform Blackbox TC] - 6.4.1.2. Người dùng - Quản lý đặt vé của tài khoản</t>
   </si>
   <si>
@@ -108,7 +102,13 @@
     <t>[Fix Bug] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
   </si>
   <si>
-    <t>10/05/2023</t>
+    <t>[Check Quality (self)] -6.4.1.3. Người dùng – Xem lịch sử cộng điểm/sử dụng điểm</t>
+  </si>
+  <si>
+    <t>[Check Quality (self)] - 6.4.1.2. Người dùng - Quản lý đặt vé của tài khoản</t>
+  </si>
+  <si>
+    <t>5/12/2023</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E56326-B3F6-46EF-B92B-57160B055A69}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -945,16 +945,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="17">
-        <v>45042</v>
-      </c>
-      <c r="D14" s="17">
-        <v>45054</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="27">
+        <v>45056</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="1"/>
@@ -966,16 +966,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="17">
-        <v>45042</v>
-      </c>
-      <c r="D15" s="17">
-        <v>45054</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="27">
+        <v>45056</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="1"/>
@@ -988,16 +988,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="17">
         <v>45054</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>20</v>
+      <c r="D16" s="27">
+        <v>45056</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="1"/>
@@ -1010,16 +1010,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="17">
         <v>45054</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>20</v>
+      <c r="D17" s="27">
+        <v>45056</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="1"/>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>27</v>
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>27</v>
